--- a/controlvariabledata.xlsx
+++ b/controlvariabledata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthew/Desktop/300paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB165E9-29B3-D64E-9BA0-6153E43F87F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC39554-6AA4-BC42-8CF8-20532D0AB7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" xr2:uid="{7EFC8D3C-ADB6-3947-9A8C-8159D8E1A1A2}"/>
   </bookViews>
@@ -450,10 +450,13 @@
   <dimension ref="A1:I637"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">

--- a/controlvariabledata.xlsx
+++ b/controlvariabledata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthew/Desktop/300paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC39554-6AA4-BC42-8CF8-20532D0AB7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5564A51-6151-654C-9250-08084C09074D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" xr2:uid="{7EFC8D3C-ADB6-3947-9A8C-8159D8E1A1A2}"/>
   </bookViews>
@@ -71,8 +71,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="mmmm\-yy"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -123,16 +123,16 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,15 +447,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52F350B-8099-B14D-A5A1-65B32D2FE538}">
-  <dimension ref="A1:I637"/>
+  <dimension ref="A1:K921"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -11130,7 +11131,7 @@
         <v>139.19999999999999</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>36739</v>
       </c>
@@ -11159,7 +11160,7 @@
         <v>148.30000000000001</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>36770</v>
       </c>
@@ -11188,7 +11189,7 @@
         <v>153.1</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>36800</v>
       </c>
@@ -11217,7 +11218,7 @@
         <v>147.80000000000001</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>36831</v>
       </c>
@@ -11246,7 +11247,7 @@
         <v>151.19999999999999</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>36861</v>
       </c>
@@ -11275,9 +11276,9 @@
         <v>151.5</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
-        <v>44927</v>
+        <v>36892</v>
       </c>
       <c r="B374" s="6">
         <v>3.6</v>
@@ -11303,10 +11304,11 @@
       <c r="I374" s="6">
         <v>152.69999999999999</v>
       </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K374" s="1"/>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
-        <v>44958</v>
+        <v>36923</v>
       </c>
       <c r="B375" s="6">
         <v>3.8</v>
@@ -11332,10 +11334,11 @@
       <c r="I375" s="6">
         <v>153.80000000000001</v>
       </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K375" s="1"/>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
-        <v>44986</v>
+        <v>36951</v>
       </c>
       <c r="B376" s="6">
         <v>4.5</v>
@@ -11361,10 +11364,11 @@
       <c r="I376" s="6">
         <v>148.1</v>
       </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K376" s="1"/>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
-        <v>45017</v>
+        <v>36982</v>
       </c>
       <c r="B377" s="6">
         <v>4.9000000000000004</v>
@@ -11390,10 +11394,11 @@
       <c r="I377" s="6">
         <v>142.80000000000001</v>
       </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K377" s="1"/>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
-        <v>45047</v>
+        <v>37012</v>
       </c>
       <c r="B378" s="6">
         <v>4.8</v>
@@ -11419,10 +11424,11 @@
       <c r="I378" s="6">
         <v>141</v>
       </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K378" s="1"/>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
-        <v>45078</v>
+        <v>37043</v>
       </c>
       <c r="B379" s="6">
         <v>5</v>
@@ -11448,10 +11454,11 @@
       <c r="I379" s="6">
         <v>142.5</v>
       </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K379" s="1"/>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
-        <v>45108</v>
+        <v>37073</v>
       </c>
       <c r="B380" s="6">
         <v>5.3</v>
@@ -11477,10 +11484,11 @@
       <c r="I380" s="6">
         <v>144.30000000000001</v>
       </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K380" s="1"/>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
-        <v>45139</v>
+        <v>37104</v>
       </c>
       <c r="B381" s="6">
         <v>5.5</v>
@@ -11506,10 +11514,11 @@
       <c r="I381" s="6">
         <v>147.1</v>
       </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K381" s="1"/>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
-        <v>45170</v>
+        <v>37135</v>
       </c>
       <c r="B382" s="6">
         <v>5</v>
@@ -11535,10 +11544,11 @@
       <c r="I382" s="6">
         <v>154.19999999999999</v>
       </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K382" s="1"/>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
-        <v>45200</v>
+        <v>37165</v>
       </c>
       <c r="B383" s="6">
         <v>4.0999999999999996</v>
@@ -11564,10 +11574,11 @@
       <c r="I383" s="6">
         <v>162.9</v>
       </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K383" s="1"/>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
-        <v>45231</v>
+        <v>37196</v>
       </c>
       <c r="B384" s="6">
         <v>3.5</v>
@@ -11593,10 +11604,11 @@
       <c r="I384" s="6">
         <v>165.5</v>
       </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K384" s="1"/>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
-        <v>45261</v>
+        <v>37226</v>
       </c>
       <c r="B385" s="6">
         <v>3.3</v>
@@ -11622,10 +11634,11 @@
       <c r="I385" s="6">
         <v>165.9</v>
       </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K385" s="1"/>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
-        <v>44928</v>
+        <v>37258</v>
       </c>
       <c r="B386" s="6">
         <v>3.6</v>
@@ -11651,10 +11664,11 @@
       <c r="I386" s="6">
         <v>162.30000000000001</v>
       </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K386" s="1"/>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
-        <v>44959</v>
+        <v>37289</v>
       </c>
       <c r="B387" s="6">
         <v>3.6</v>
@@ -11680,10 +11694,11 @@
       <c r="I387" s="6">
         <v>163.4</v>
       </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K387" s="1"/>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
-        <v>44987</v>
+        <v>37317</v>
       </c>
       <c r="B388" s="6">
         <v>3.4</v>
@@ -11709,10 +11724,11 @@
       <c r="I388" s="6">
         <v>165.7</v>
       </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K388" s="1"/>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
-        <v>45018</v>
+        <v>37348</v>
       </c>
       <c r="B389" s="6">
         <v>3.1</v>
@@ -11738,10 +11754,11 @@
       <c r="I389" s="6">
         <v>168.5</v>
       </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K389" s="1"/>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
-        <v>45048</v>
+        <v>37378</v>
       </c>
       <c r="B390" s="6">
         <v>3.1</v>
@@ -11767,10 +11784,11 @@
       <c r="I390" s="6">
         <v>170.6</v>
       </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K390" s="1"/>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
-        <v>45079</v>
+        <v>37409</v>
       </c>
       <c r="B391" s="6">
         <v>3.6</v>
@@ -11796,10 +11814,11 @@
       <c r="I391" s="6">
         <v>164.1</v>
       </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K391" s="1"/>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
-        <v>45109</v>
+        <v>37439</v>
       </c>
       <c r="B392" s="6">
         <v>4</v>
@@ -11825,10 +11844,11 @@
       <c r="I392" s="6">
         <v>160.19999999999999</v>
       </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K392" s="1"/>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
-        <v>45140</v>
+        <v>37470</v>
       </c>
       <c r="B393" s="6">
         <v>3.5</v>
@@ -11854,10 +11874,11 @@
       <c r="I393" s="6">
         <v>169.8</v>
       </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K393" s="1"/>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
-        <v>45171</v>
+        <v>37501</v>
       </c>
       <c r="B394" s="6">
         <v>2.8</v>
@@ -11883,10 +11904,11 @@
       <c r="I394" s="6">
         <v>170.4</v>
       </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K394" s="1"/>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
-        <v>45201</v>
+        <v>37531</v>
       </c>
       <c r="B395" s="6">
         <v>3.2</v>
@@ -11912,10 +11934,11 @@
       <c r="I395" s="6">
         <v>162.80000000000001</v>
       </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K395" s="1"/>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
-        <v>45232</v>
+        <v>37562</v>
       </c>
       <c r="B396" s="6">
         <v>3.1</v>
@@ -11941,10 +11964,11 @@
       <c r="I396" s="6">
         <v>162.6</v>
       </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K396" s="1"/>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
-        <v>45262</v>
+        <v>37592</v>
       </c>
       <c r="B397" s="6">
         <v>3.4</v>
@@ -11970,10 +11994,11 @@
       <c r="I397" s="6">
         <v>161.6</v>
       </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K397" s="1"/>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
-        <v>44929</v>
+        <v>37624</v>
       </c>
       <c r="B398" s="6">
         <v>3.5</v>
@@ -11999,10 +12024,11 @@
       <c r="I398" s="6">
         <v>156.19999999999999</v>
       </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K398" s="1"/>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
-        <v>44960</v>
+        <v>37655</v>
       </c>
       <c r="B399" s="6">
         <v>3.6</v>
@@ -12028,10 +12054,11 @@
       <c r="I399" s="6">
         <v>161.19999999999999</v>
       </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K399" s="1"/>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
-        <v>44988</v>
+        <v>37683</v>
       </c>
       <c r="B400" s="6">
         <v>3.6</v>
@@ -12057,10 +12084,11 @@
       <c r="I400" s="6">
         <v>159.69999999999999</v>
       </c>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K400" s="1"/>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
-        <v>45019</v>
+        <v>37714</v>
       </c>
       <c r="B401" s="6">
         <v>3.6</v>
@@ -12086,10 +12114,11 @@
       <c r="I401" s="6">
         <v>162</v>
       </c>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K401" s="1"/>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
-        <v>45049</v>
+        <v>37744</v>
       </c>
       <c r="B402" s="6">
         <v>4.2</v>
@@ -12115,10 +12144,11 @@
       <c r="I402" s="6">
         <v>149.19999999999999</v>
       </c>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K402" s="1"/>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
-        <v>45080</v>
+        <v>37775</v>
       </c>
       <c r="B403" s="6">
         <v>4.5</v>
@@ -12144,10 +12174,11 @@
       <c r="I403" s="6">
         <v>144</v>
       </c>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K403" s="1"/>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
-        <v>45110</v>
+        <v>37805</v>
       </c>
       <c r="B404" s="6">
         <v>4.5999999999999996</v>
@@ -12173,10 +12204,11 @@
       <c r="I404" s="6">
         <v>153.19999999999999</v>
       </c>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K404" s="1"/>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
-        <v>45141</v>
+        <v>37836</v>
       </c>
       <c r="B405" s="6">
         <v>4.4000000000000004</v>
@@ -12202,10 +12234,11 @@
       <c r="I405" s="6">
         <v>158.1</v>
       </c>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K405" s="1"/>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
-        <v>45172</v>
+        <v>37867</v>
       </c>
       <c r="B406" s="6">
         <v>4.5999999999999996</v>
@@ -12231,10 +12264,11 @@
       <c r="I406" s="6">
         <v>155.6</v>
       </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K406" s="1"/>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
-        <v>45202</v>
+        <v>37897</v>
       </c>
       <c r="B407" s="6">
         <v>4.9000000000000004</v>
@@ -12260,10 +12294,11 @@
       <c r="I407" s="6">
         <v>162.4</v>
       </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K407" s="1"/>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
-        <v>45233</v>
+        <v>37928</v>
       </c>
       <c r="B408" s="6">
         <v>4.7</v>
@@ -12289,10 +12324,11 @@
       <c r="I408" s="6">
         <v>169.9</v>
       </c>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K408" s="1"/>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
-        <v>45263</v>
+        <v>37958</v>
       </c>
       <c r="B409" s="6">
         <v>4.5</v>
@@ -12318,10 +12354,11 @@
       <c r="I409" s="6">
         <v>166.2</v>
       </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K409" s="1"/>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
-        <v>44930</v>
+        <v>37990</v>
       </c>
       <c r="B410" s="6">
         <v>4.5999999999999996</v>
@@ -12347,10 +12384,11 @@
       <c r="I410" s="6">
         <v>161.30000000000001</v>
       </c>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K410" s="1"/>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
-        <v>44961</v>
+        <v>38021</v>
       </c>
       <c r="B411" s="6">
         <v>5.0999999999999996</v>
@@ -12376,10 +12414,11 @@
       <c r="I411" s="6">
         <v>155.1</v>
       </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K411" s="1"/>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
-        <v>44989</v>
+        <v>38050</v>
       </c>
       <c r="B412" s="6">
         <v>5.4</v>
@@ -12405,10 +12444,11 @@
       <c r="I412" s="6">
         <v>150.80000000000001</v>
       </c>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K412" s="1"/>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
-        <v>45020</v>
+        <v>38081</v>
       </c>
       <c r="B413" s="6">
         <v>5.3</v>
@@ -12434,10 +12474,11 @@
       <c r="I413" s="6">
         <v>149.80000000000001</v>
       </c>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K413" s="1"/>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
-        <v>45050</v>
+        <v>38111</v>
       </c>
       <c r="B414" s="6">
         <v>6</v>
@@ -12463,10 +12504,11 @@
       <c r="I414" s="6">
         <v>141.5</v>
       </c>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K414" s="1"/>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
-        <v>45081</v>
+        <v>38142</v>
       </c>
       <c r="B415" s="6">
         <v>6.1</v>
@@ -12492,10 +12534,11 @@
       <c r="I415" s="6">
         <v>147</v>
       </c>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K415" s="1"/>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
-        <v>45111</v>
+        <v>38172</v>
       </c>
       <c r="B416" s="6">
         <v>6.7</v>
@@ -12521,10 +12564,11 @@
       <c r="I416" s="6">
         <v>148.9</v>
       </c>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K416" s="1"/>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
-        <v>45142</v>
+        <v>38203</v>
       </c>
       <c r="B417" s="6">
         <v>6.8</v>
@@ -12550,10 +12594,11 @@
       <c r="I417" s="6">
         <v>154.4</v>
       </c>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K417" s="1"/>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
-        <v>45173</v>
+        <v>38234</v>
       </c>
       <c r="B418" s="6">
         <v>6.9</v>
@@ -12579,10 +12624,11 @@
       <c r="I418" s="6">
         <v>156.1</v>
       </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K418" s="1"/>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
-        <v>45203</v>
+        <v>38264</v>
       </c>
       <c r="B419" s="6">
         <v>6.7</v>
@@ -12608,10 +12654,11 @@
       <c r="I419" s="6">
         <v>157</v>
       </c>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K419" s="1"/>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
-        <v>45234</v>
+        <v>38295</v>
       </c>
       <c r="B420" s="6">
         <v>7</v>
@@ -12637,10 +12684,11 @@
       <c r="I420" s="6">
         <v>151.4</v>
       </c>
-    </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K420" s="1"/>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
-        <v>45264</v>
+        <v>38325</v>
       </c>
       <c r="B421" s="6">
         <v>6.3</v>
@@ -12666,10 +12714,11 @@
       <c r="I421" s="6">
         <v>149.9</v>
       </c>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K421" s="1"/>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
-        <v>44931</v>
+        <v>38357</v>
       </c>
       <c r="B422" s="6">
         <v>5.8</v>
@@ -12695,10 +12744,11 @@
       <c r="I422" s="6">
         <v>152.5</v>
       </c>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K422" s="1"/>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
-        <v>44962</v>
+        <v>38388</v>
       </c>
       <c r="B423" s="6">
         <v>5.4</v>
@@ -12724,10 +12774,11 @@
       <c r="I423" s="6">
         <v>157.69999999999999</v>
       </c>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K423" s="1"/>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
-        <v>44990</v>
+        <v>38416</v>
       </c>
       <c r="B424" s="6">
         <v>5.3</v>
@@ -12753,10 +12804,11 @@
       <c r="I424" s="6">
         <v>155.19999999999999</v>
       </c>
-    </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K424" s="1"/>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
-        <v>45021</v>
+        <v>38447</v>
       </c>
       <c r="B425" s="6">
         <v>5.6</v>
@@ -12782,10 +12834,11 @@
       <c r="I425" s="6">
         <v>159.4</v>
       </c>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K425" s="1"/>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
-        <v>45051</v>
+        <v>38477</v>
       </c>
       <c r="B426" s="6">
         <v>6.2</v>
@@ -12811,10 +12864,11 @@
       <c r="I426" s="6">
         <v>158.1</v>
       </c>
-    </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K426" s="1"/>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
-        <v>45082</v>
+        <v>38508</v>
       </c>
       <c r="B427" s="6">
         <v>5.8</v>
@@ -12840,10 +12894,11 @@
       <c r="I427" s="6">
         <v>163.9</v>
       </c>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K427" s="1"/>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
-        <v>45112</v>
+        <v>38538</v>
       </c>
       <c r="B428" s="6">
         <v>5.5</v>
@@ -12869,10 +12924,11 @@
       <c r="I428" s="6">
         <v>160.69999999999999</v>
       </c>
-    </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K428" s="1"/>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
-        <v>45143</v>
+        <v>38569</v>
       </c>
       <c r="B429" s="6">
         <v>5.5</v>
@@ -12898,10 +12954,11 @@
       <c r="I429" s="6">
         <v>154.6</v>
       </c>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K429" s="1"/>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
-        <v>45174</v>
+        <v>38600</v>
       </c>
       <c r="B430" s="6">
         <v>5.5</v>
@@ -12927,10 +12984,11 @@
       <c r="I430" s="6">
         <v>156.1</v>
       </c>
-    </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K430" s="1"/>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
-        <v>45204</v>
+        <v>38630</v>
       </c>
       <c r="B431" s="6">
         <v>5.7</v>
@@ -12956,10 +13014,11 @@
       <c r="I431" s="6">
         <v>156.80000000000001</v>
       </c>
-    </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K431" s="1"/>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
-        <v>45235</v>
+        <v>38661</v>
       </c>
       <c r="B432" s="6">
         <v>5.3</v>
@@ -12985,10 +13044,11 @@
       <c r="I432" s="6">
         <v>156.4</v>
       </c>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K432" s="1"/>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
-        <v>45265</v>
+        <v>38691</v>
       </c>
       <c r="B433" s="6">
         <v>4.9000000000000004</v>
@@ -13014,10 +13074,11 @@
       <c r="I433" s="6">
         <v>160.80000000000001</v>
       </c>
-    </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K433" s="1"/>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
-        <v>44932</v>
+        <v>38723</v>
       </c>
       <c r="B434" s="6">
         <v>4.5</v>
@@ -13043,10 +13104,11 @@
       <c r="I434" s="6">
         <v>166.3</v>
       </c>
-    </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K434" s="1"/>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
-        <v>44963</v>
+        <v>38754</v>
       </c>
       <c r="B435" s="6">
         <v>4.5</v>
@@ -13072,10 +13134,11 @@
       <c r="I435" s="6">
         <v>169.4</v>
       </c>
-    </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K435" s="1"/>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
-        <v>44991</v>
+        <v>38782</v>
       </c>
       <c r="B436" s="6">
         <v>4.4000000000000004</v>
@@ -13101,10 +13164,11 @@
       <c r="I436" s="6">
         <v>160.5</v>
       </c>
-    </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K436" s="1"/>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
-        <v>45022</v>
+        <v>38813</v>
       </c>
       <c r="B437" s="6">
         <v>4.3</v>
@@ -13130,10 +13194,11 @@
       <c r="I437" s="6">
         <v>166.2</v>
       </c>
-    </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K437" s="1"/>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
-        <v>45052</v>
+        <v>38843</v>
       </c>
       <c r="B438" s="6">
         <v>4.9000000000000004</v>
@@ -13159,10 +13224,11 @@
       <c r="I438" s="6">
         <v>155.19999999999999</v>
       </c>
-    </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K438" s="1"/>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
-        <v>45083</v>
+        <v>38874</v>
       </c>
       <c r="B439" s="6">
         <v>5.3</v>
@@ -13188,10 +13254,11 @@
       <c r="I439" s="6">
         <v>147.19999999999999</v>
       </c>
-    </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K439" s="1"/>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
-        <v>45113</v>
+        <v>38904</v>
       </c>
       <c r="B440" s="6">
         <v>5.4</v>
@@ -13217,10 +13284,11 @@
       <c r="I440" s="6">
         <v>155</v>
       </c>
-    </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K440" s="1"/>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
-        <v>45144</v>
+        <v>38935</v>
       </c>
       <c r="B441" s="6">
         <v>6</v>
@@ -13246,10 +13314,11 @@
       <c r="I441" s="6">
         <v>154.1</v>
       </c>
-    </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K441" s="1"/>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
-        <v>45175</v>
+        <v>38966</v>
       </c>
       <c r="B442" s="6">
         <v>6</v>
@@ -13275,10 +13344,11 @@
       <c r="I442" s="6">
         <v>160.6</v>
       </c>
-    </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K442" s="1"/>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
-        <v>45205</v>
+        <v>38996</v>
       </c>
       <c r="B443" s="6">
         <v>5.5</v>
@@ -13304,10 +13374,11 @@
       <c r="I443" s="6">
         <v>161.6</v>
       </c>
-    </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K443" s="1"/>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
-        <v>45236</v>
+        <v>39027</v>
       </c>
       <c r="B444" s="6">
         <v>5.2</v>
@@ -13333,10 +13404,11 @@
       <c r="I444" s="6">
         <v>158.6</v>
       </c>
-    </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K444" s="1"/>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
-        <v>45266</v>
+        <v>39057</v>
       </c>
       <c r="B445" s="6">
         <v>5.0999999999999996</v>
@@ -13362,10 +13434,11 @@
       <c r="I445" s="6">
         <v>157.5</v>
       </c>
-    </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K445" s="1"/>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
-        <v>44933</v>
+        <v>39089</v>
       </c>
       <c r="B446" s="6">
         <v>5.2</v>
@@ -13391,10 +13464,11 @@
       <c r="I446" s="6">
         <v>163</v>
       </c>
-    </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K446" s="1"/>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
-        <v>44964</v>
+        <v>39120</v>
       </c>
       <c r="B447" s="6">
         <v>5.5</v>
@@ -13420,10 +13494,11 @@
       <c r="I447" s="6">
         <v>155.5</v>
       </c>
-    </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K447" s="1"/>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
-        <v>44992</v>
+        <v>39148</v>
       </c>
       <c r="B448" s="6">
         <v>5.5</v>
@@ -13449,10 +13524,11 @@
       <c r="I448" s="6">
         <v>162.69999999999999</v>
       </c>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K448" s="1"/>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
-        <v>45023</v>
+        <v>39179</v>
       </c>
       <c r="B449" s="6">
         <v>5.7</v>
@@ -13478,10 +13554,11 @@
       <c r="I449" s="6">
         <v>157.6</v>
       </c>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K449" s="1"/>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
-        <v>45053</v>
+        <v>39209</v>
       </c>
       <c r="B450" s="6">
         <v>6.4</v>
@@ -13507,10 +13584,11 @@
       <c r="I450" s="6">
         <v>156.9</v>
       </c>
-    </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K450" s="1"/>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
-        <v>45084</v>
+        <v>39240</v>
       </c>
       <c r="B451" s="6">
         <v>7</v>
@@ -13536,10 +13614,11 @@
       <c r="I451" s="6">
         <v>160.1</v>
       </c>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K451" s="1"/>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
-        <v>45114</v>
+        <v>39270</v>
       </c>
       <c r="B452" s="6">
         <v>7</v>
@@ -13565,10 +13644,11 @@
       <c r="I452" s="6">
         <v>166.8</v>
       </c>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K452" s="1"/>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
-        <v>45145</v>
+        <v>39301</v>
       </c>
       <c r="B453" s="6">
         <v>7.1</v>
@@ -13594,10 +13674,11 @@
       <c r="I453" s="6">
         <v>166</v>
       </c>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K453" s="1"/>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
-        <v>45176</v>
+        <v>39332</v>
       </c>
       <c r="B454" s="6">
         <v>6.5</v>
@@ -13623,10 +13704,11 @@
       <c r="I454" s="6">
         <v>169.9</v>
       </c>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K454" s="1"/>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
-        <v>45206</v>
+        <v>39362</v>
       </c>
       <c r="B455" s="6">
         <v>6</v>
@@ -13652,10 +13734,11 @@
       <c r="I455" s="6">
         <v>178.4</v>
       </c>
-    </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K455" s="1"/>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
-        <v>45237</v>
+        <v>39393</v>
       </c>
       <c r="B456" s="6">
         <v>5.4</v>
@@ -13681,10 +13764,11 @@
       <c r="I456" s="6">
         <v>175.2</v>
       </c>
-    </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K456" s="1"/>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
-        <v>45267</v>
+        <v>39423</v>
       </c>
       <c r="B457" s="6">
         <v>5.6</v>
@@ -13710,10 +13794,11 @@
       <c r="I457" s="6">
         <v>175.3</v>
       </c>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K457" s="1"/>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
-        <v>44934</v>
+        <v>39455</v>
       </c>
       <c r="B458" s="6">
         <v>5.4</v>
@@ -13739,10 +13824,11 @@
       <c r="I458" s="6">
         <v>176.3</v>
       </c>
-    </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K458" s="1"/>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
-        <v>44965</v>
+        <v>39486</v>
       </c>
       <c r="B459" s="6">
         <v>6.5</v>
@@ -13768,10 +13854,11 @@
       <c r="I459" s="6">
         <v>169.8</v>
       </c>
-    </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K459" s="1"/>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
-        <v>44993</v>
+        <v>39515</v>
       </c>
       <c r="B460" s="6">
         <v>6.4</v>
@@ -13797,10 +13884,11 @@
       <c r="I460" s="6">
         <v>173.3</v>
       </c>
-    </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K460" s="1"/>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
-        <v>45024</v>
+        <v>39546</v>
       </c>
       <c r="B461" s="6">
         <v>6.9</v>
@@ -13826,10 +13914,11 @@
       <c r="I461" s="6">
         <v>166.4</v>
       </c>
-    </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K461" s="1"/>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
-        <v>45054</v>
+        <v>39576</v>
       </c>
       <c r="B462" s="6">
         <v>8</v>
@@ -13855,10 +13944,11 @@
       <c r="I462" s="6">
         <v>154.80000000000001</v>
       </c>
-    </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K462" s="1"/>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
-        <v>45085</v>
+        <v>39607</v>
       </c>
       <c r="B463" s="6">
         <v>8</v>
@@ -13884,10 +13974,11 @@
       <c r="I463" s="6">
         <v>158.5</v>
       </c>
-    </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K463" s="1"/>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
-        <v>45115</v>
+        <v>39637</v>
       </c>
       <c r="B464" s="6">
         <v>8.6999999999999993</v>
@@ -13913,10 +14004,11 @@
       <c r="I464" s="6">
         <v>156.30000000000001</v>
       </c>
-    </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K464" s="1"/>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
-        <v>45146</v>
+        <v>39668</v>
       </c>
       <c r="B465" s="6">
         <v>9.1999999999999993</v>
@@ -13942,10 +14034,11 @@
       <c r="I465" s="6">
         <v>153.19999999999999</v>
       </c>
-    </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K465" s="1"/>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
-        <v>45177</v>
+        <v>39699</v>
       </c>
       <c r="B466" s="6">
         <v>7.9</v>
@@ -13971,10 +14064,11 @@
       <c r="I466" s="6">
         <v>168.2</v>
       </c>
-    </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K466" s="1"/>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
-        <v>45207</v>
+        <v>39729</v>
       </c>
       <c r="B467" s="6">
         <v>6.8</v>
@@ -14000,10 +14094,11 @@
       <c r="I467" s="6">
         <v>176.4</v>
       </c>
-    </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K467" s="1"/>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
-        <v>45238</v>
+        <v>39760</v>
       </c>
       <c r="B468" s="6">
         <v>5.0999999999999996</v>
@@ -14029,10 +14124,11 @@
       <c r="I468" s="6">
         <v>187.6</v>
       </c>
-    </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K468" s="1"/>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
-        <v>45268</v>
+        <v>39790</v>
       </c>
       <c r="B469" s="6">
         <v>4.7</v>
@@ -14058,10 +14154,11 @@
       <c r="I469" s="6">
         <v>186.1</v>
       </c>
-    </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K469" s="1"/>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
-        <v>44935</v>
+        <v>39822</v>
       </c>
       <c r="B470" s="6">
         <v>5.5</v>
@@ -14087,10 +14184,11 @@
       <c r="I470" s="6">
         <v>186.9</v>
       </c>
-    </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K470" s="1"/>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
-        <v>44966</v>
+        <v>39853</v>
       </c>
       <c r="B471" s="6">
         <v>5.4</v>
@@ -14116,10 +14214,11 @@
       <c r="I471" s="6">
         <v>185.1</v>
       </c>
-    </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K471" s="1"/>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
-        <v>44994</v>
+        <v>39881</v>
       </c>
       <c r="B472" s="6">
         <v>5.4</v>
@@ -14145,10 +14244,11 @@
       <c r="I472" s="6">
         <v>183</v>
       </c>
-    </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K472" s="1"/>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
-        <v>45025</v>
+        <v>39912</v>
       </c>
       <c r="B473" s="6">
         <v>5.7</v>
@@ -14174,10 +14274,11 @@
       <c r="I473" s="6">
         <v>179.3</v>
       </c>
-    </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K473" s="1"/>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
-        <v>45055</v>
+        <v>39942</v>
       </c>
       <c r="B474" s="6">
         <v>5.9</v>
@@ -14203,10 +14304,11 @@
       <c r="I474" s="6">
         <v>183.1</v>
       </c>
-    </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K474" s="1"/>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
-        <v>45086</v>
+        <v>39973</v>
       </c>
       <c r="B475" s="6">
         <v>5.9</v>
@@ -14232,10 +14334,11 @@
       <c r="I475" s="6">
         <v>186.3</v>
       </c>
-    </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K475" s="1"/>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
-        <v>45116</v>
+        <v>40003</v>
       </c>
       <c r="B476" s="6">
         <v>5.7</v>
@@ -14261,10 +14364,11 @@
       <c r="I476" s="6">
         <v>184.3</v>
       </c>
-    </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K476" s="1"/>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
-        <v>45147</v>
+        <v>40034</v>
       </c>
       <c r="B477" s="6">
         <v>5.2</v>
@@ -14290,10 +14394,11 @@
       <c r="I477" s="6">
         <v>186.6</v>
       </c>
-    </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K477" s="1"/>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
-        <v>45178</v>
+        <v>40065</v>
       </c>
       <c r="B478" s="6">
         <v>5.2</v>
@@ -14319,10 +14424,11 @@
       <c r="I478" s="6">
         <v>184.5</v>
       </c>
-    </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K478" s="1"/>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
-        <v>45208</v>
+        <v>40095</v>
       </c>
       <c r="B479" s="6">
         <v>5.0999999999999996</v>
@@ -14348,10 +14454,11 @@
       <c r="I479" s="6">
         <v>180</v>
       </c>
-    </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K479" s="1"/>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
-        <v>45239</v>
+        <v>40126</v>
       </c>
       <c r="B480" s="6">
         <v>5.8</v>
@@ -14377,10 +14484,11 @@
       <c r="I480" s="6">
         <v>170.7</v>
       </c>
-    </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K480" s="1"/>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
-        <v>45269</v>
+        <v>40156</v>
       </c>
       <c r="B481" s="6">
         <v>6.2</v>
@@ -14406,10 +14514,11 @@
       <c r="I481" s="6">
         <v>159.5</v>
       </c>
-    </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K481" s="1"/>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
-        <v>44936</v>
+        <v>40188</v>
       </c>
       <c r="B482" s="6">
         <v>6.7</v>
@@ -14435,10 +14544,11 @@
       <c r="I482" s="6">
         <v>158.80000000000001</v>
       </c>
-    </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K482" s="1"/>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
-        <v>44967</v>
+        <v>40219</v>
       </c>
       <c r="B483" s="6">
         <v>6.7</v>
@@ -14464,10 +14574,11 @@
       <c r="I483" s="6">
         <v>166.6</v>
       </c>
-    </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K483" s="1"/>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
-        <v>44995</v>
+        <v>40247</v>
       </c>
       <c r="B484" s="6">
         <v>7.2</v>
@@ -14493,10 +14604,11 @@
       <c r="I484" s="6">
         <v>160.6</v>
       </c>
-    </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K484" s="1"/>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
-        <v>45026</v>
+        <v>40278</v>
       </c>
       <c r="B485" s="6">
         <v>7.4</v>
@@ -14522,10 +14634,11 @@
       <c r="I485" s="6">
         <v>146.6</v>
       </c>
-    </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K485" s="1"/>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
-        <v>45056</v>
+        <v>40308</v>
       </c>
       <c r="B486" s="6">
         <v>8.1</v>
@@ -14551,10 +14664,11 @@
       <c r="I486" s="6">
         <v>155.69999999999999</v>
       </c>
-    </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K486" s="1"/>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
-        <v>45087</v>
+        <v>40339</v>
       </c>
       <c r="B487" s="6">
         <v>7.4</v>
@@ -14580,10 +14694,11 @@
       <c r="I487" s="6">
         <v>166.9</v>
       </c>
-    </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K487" s="1"/>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
-        <v>45117</v>
+        <v>40369</v>
       </c>
       <c r="B488" s="6">
         <v>7.4</v>
@@ -14609,10 +14724,11 @@
       <c r="I488" s="6">
         <v>176.8</v>
       </c>
-    </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K488" s="1"/>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
-        <v>45148</v>
+        <v>40400</v>
       </c>
       <c r="B489" s="6">
         <v>7.6</v>
@@ -14638,10 +14754,11 @@
       <c r="I489" s="6">
         <v>173</v>
       </c>
-    </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K489" s="1"/>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
-        <v>45179</v>
+        <v>40431</v>
       </c>
       <c r="B490" s="6">
         <v>8.1999999999999993</v>
@@ -14667,10 +14784,11 @@
       <c r="I490" s="6">
         <v>180.6</v>
       </c>
-    </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K490" s="1"/>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
-        <v>45209</v>
+        <v>40461</v>
       </c>
       <c r="B491" s="6">
         <v>7.3</v>
@@ -14696,10 +14814,11 @@
       <c r="I491" s="6">
         <v>190.9</v>
       </c>
-    </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K491" s="1"/>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
-        <v>45240</v>
+        <v>40492</v>
       </c>
       <c r="B492" s="6">
         <v>6.4</v>
@@ -14725,10 +14844,11 @@
       <c r="I492" s="6">
         <v>189.4</v>
       </c>
-    </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K492" s="1"/>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
-        <v>45270</v>
+        <v>40522</v>
       </c>
       <c r="B493" s="6">
         <v>6.9</v>
@@ -14754,10 +14874,11 @@
       <c r="I493" s="6">
         <v>176.5</v>
       </c>
-    </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K493" s="1"/>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
-        <v>44937</v>
+        <v>40554</v>
       </c>
       <c r="B494" s="6">
         <v>7.9</v>
@@ -14783,10 +14904,11 @@
       <c r="I494" s="6">
         <v>178.5</v>
       </c>
-    </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K494" s="1"/>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
-        <v>44968</v>
+        <v>40585</v>
       </c>
       <c r="B495" s="6">
         <v>8.6999999999999993</v>
@@ -14812,10 +14934,11 @@
       <c r="I495" s="6">
         <v>174.4</v>
       </c>
-    </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K495" s="1"/>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
-        <v>44996</v>
+        <v>40613</v>
       </c>
       <c r="B496" s="6">
         <v>9</v>
@@ -14841,10 +14964,11 @@
       <c r="I496" s="6">
         <v>179.7</v>
       </c>
-    </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K496" s="1"/>
+    </row>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
-        <v>45027</v>
+        <v>40644</v>
       </c>
       <c r="B497" s="6">
         <v>9.5</v>
@@ -14870,10 +14994,11 @@
       <c r="I497" s="6">
         <v>178.8</v>
       </c>
-    </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K497" s="1"/>
+    </row>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
-        <v>45057</v>
+        <v>40674</v>
       </c>
       <c r="B498" s="6">
         <v>9.6</v>
@@ -14899,10 +15024,11 @@
       <c r="I498" s="6">
         <v>189.3</v>
       </c>
-    </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K498" s="1"/>
+    </row>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
-        <v>45088</v>
+        <v>40705</v>
       </c>
       <c r="B499" s="6">
         <v>10.199999999999999</v>
@@ -14928,10 +15054,11 @@
       <c r="I499" s="6">
         <v>190</v>
       </c>
-    </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K499" s="1"/>
+    </row>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
-        <v>45118</v>
+        <v>40735</v>
       </c>
       <c r="B500" s="6">
         <v>10.6</v>
@@ -14957,10 +15084,11 @@
       <c r="I500" s="6">
         <v>181</v>
       </c>
-    </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K500" s="1"/>
+    </row>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
-        <v>45149</v>
+        <v>40766</v>
       </c>
       <c r="B501" s="6">
         <v>11.2</v>
@@ -14986,10 +15114,11 @@
       <c r="I501" s="6">
         <v>178.1</v>
       </c>
-    </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K501" s="1"/>
+    </row>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
-        <v>45180</v>
+        <v>40797</v>
       </c>
       <c r="B502" s="6">
         <v>10.1</v>
@@ -15015,10 +15144,11 @@
       <c r="I502" s="6">
         <v>191.1</v>
       </c>
-    </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K502" s="1"/>
+    </row>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
-        <v>45210</v>
+        <v>40827</v>
       </c>
       <c r="B503" s="6">
         <v>10.9</v>
@@ -15044,10 +15174,11 @@
       <c r="I503" s="6">
         <v>183.3</v>
       </c>
-    </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K503" s="1"/>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
-        <v>45241</v>
+        <v>40858</v>
       </c>
       <c r="B504" s="6">
         <v>9.4</v>
@@ -15073,10 +15204,11 @@
       <c r="I504" s="6">
         <v>195.8</v>
       </c>
-    </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K504" s="1"/>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
-        <v>45271</v>
+        <v>40888</v>
       </c>
       <c r="B505" s="6">
         <v>9.3000000000000007</v>
@@ -15102,10 +15234,11 @@
       <c r="I505" s="6">
         <v>193.6</v>
       </c>
-    </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K505" s="1"/>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
-        <v>44938</v>
+        <v>40920</v>
       </c>
       <c r="B506" s="6">
         <v>9.1999999999999993</v>
@@ -15131,10 +15264,11 @@
       <c r="I506" s="6">
         <v>202.6</v>
       </c>
-    </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K506" s="1"/>
+    </row>
+    <row r="507" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
-        <v>44969</v>
+        <v>40951</v>
       </c>
       <c r="B507" s="6">
         <v>9.6</v>
@@ -15160,10 +15294,11 @@
       <c r="I507" s="6">
         <v>201</v>
       </c>
-    </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K507" s="1"/>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
-        <v>44997</v>
+        <v>40980</v>
       </c>
       <c r="B508" s="6">
         <v>9.6999999999999993</v>
@@ -15189,10 +15324,11 @@
       <c r="I508" s="6">
         <v>204.5</v>
       </c>
-    </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K508" s="1"/>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
-        <v>45028</v>
+        <v>41011</v>
       </c>
       <c r="B509" s="6">
         <v>9.1999999999999993</v>
@@ -15218,10 +15354,11 @@
       <c r="I509" s="6">
         <v>205.4</v>
       </c>
-    </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K509" s="1"/>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
-        <v>45058</v>
+        <v>41041</v>
       </c>
       <c r="B510" s="6">
         <v>9.3000000000000007</v>
@@ -15247,10 +15384,11 @@
       <c r="I510" s="6">
         <v>196.9</v>
       </c>
-    </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K510" s="1"/>
+    </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
-        <v>45089</v>
+        <v>41072</v>
       </c>
       <c r="B511" s="6">
         <v>10.1</v>
@@ -15276,10 +15414,11 @@
       <c r="I511" s="6">
         <v>183.9</v>
       </c>
-    </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K511" s="1"/>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
-        <v>45119</v>
+        <v>41102</v>
       </c>
       <c r="B512" s="6">
         <v>10.4</v>
@@ -15305,10 +15444,11 @@
       <c r="I512" s="6">
         <v>189.6</v>
       </c>
-    </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K512" s="1"/>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
-        <v>45150</v>
+        <v>41133</v>
       </c>
       <c r="B513" s="6">
         <v>9.5</v>
@@ -15334,10 +15474,11 @@
       <c r="I513" s="6">
         <v>201.9</v>
       </c>
-    </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K513" s="1"/>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
-        <v>45181</v>
+        <v>41164</v>
       </c>
       <c r="B514" s="6">
         <v>8</v>
@@ -15363,10 +15504,11 @@
       <c r="I514" s="6">
         <v>209.5</v>
       </c>
-    </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K514" s="1"/>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
-        <v>45211</v>
+        <v>41194</v>
       </c>
       <c r="B515" s="6">
         <v>9.1999999999999993</v>
@@ -15392,10 +15534,11 @@
       <c r="I515" s="6">
         <v>200.3</v>
       </c>
-    </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K515" s="1"/>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
-        <v>45242</v>
+        <v>41225</v>
       </c>
       <c r="B516" s="6">
         <v>9.4</v>
@@ -15421,10 +15564,11 @@
       <c r="I516" s="6">
         <v>202.5</v>
       </c>
-    </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K516" s="1"/>
+    </row>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
-        <v>45272</v>
+        <v>41255</v>
       </c>
       <c r="B517" s="6">
         <v>9.3000000000000007</v>
@@ -15450,10 +15594,11 @@
       <c r="I517" s="6">
         <v>196.8</v>
       </c>
-    </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K517" s="1"/>
+    </row>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
-        <v>44939</v>
+        <v>41287</v>
       </c>
       <c r="B518" s="6">
         <v>9.3000000000000007</v>
@@ -15479,10 +15624,11 @@
       <c r="I518" s="6">
         <v>198.3</v>
       </c>
-    </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K518" s="1"/>
+    </row>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
-        <v>44970</v>
+        <v>41318</v>
       </c>
       <c r="B519" s="6">
         <v>9</v>
@@ -15508,10 +15654,11 @@
       <c r="I519" s="6">
         <v>200.3</v>
       </c>
-    </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K519" s="1"/>
+    </row>
+    <row r="520" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
-        <v>44998</v>
+        <v>41346</v>
       </c>
       <c r="B520" s="6">
         <v>8.1999999999999993</v>
@@ -15537,10 +15684,11 @@
       <c r="I520" s="6">
         <v>212.2</v>
       </c>
-    </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K520" s="1"/>
+    </row>
+    <row r="521" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
-        <v>45029</v>
+        <v>41377</v>
       </c>
       <c r="B521" s="6">
         <v>8.6999999999999993</v>
@@ -15566,10 +15714,11 @@
       <c r="I521" s="6">
         <v>209.5</v>
       </c>
-    </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K521" s="1"/>
+    </row>
+    <row r="522" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
-        <v>45059</v>
+        <v>41407</v>
       </c>
       <c r="B522" s="6">
         <v>9.6</v>
@@ -15595,10 +15744,11 @@
       <c r="I522" s="6">
         <v>202.2</v>
       </c>
-    </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K522" s="1"/>
+    </row>
+    <row r="523" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
-        <v>45090</v>
+        <v>41438</v>
       </c>
       <c r="B523" s="6">
         <v>10.5</v>
@@ -15624,10 +15774,11 @@
       <c r="I523" s="6">
         <v>194.3</v>
       </c>
-    </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K523" s="1"/>
+    </row>
+    <row r="524" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
-        <v>45120</v>
+        <v>41468</v>
       </c>
       <c r="B524" s="6">
         <v>10.9</v>
@@ -15653,10 +15804,11 @@
       <c r="I524" s="6">
         <v>197</v>
       </c>
-    </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K524" s="1"/>
+    </row>
+    <row r="525" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
-        <v>45151</v>
+        <v>41499</v>
       </c>
       <c r="B525" s="6">
         <v>11</v>
@@ -15682,10 +15834,11 @@
       <c r="I525" s="6">
         <v>205.1</v>
       </c>
-    </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K525" s="1"/>
+    </row>
+    <row r="526" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
-        <v>45182</v>
+        <v>41530</v>
       </c>
       <c r="B526" s="6">
         <v>11</v>
@@ -15711,10 +15864,11 @@
       <c r="I526" s="6">
         <v>211</v>
       </c>
-    </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K526" s="1"/>
+    </row>
+    <row r="527" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
-        <v>45212</v>
+        <v>41560</v>
       </c>
       <c r="B527" s="6">
         <v>9.6</v>
@@ -15740,10 +15894,11 @@
       <c r="I527" s="6">
         <v>215.9</v>
       </c>
-    </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K527" s="1"/>
+    </row>
+    <row r="528" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
-        <v>45243</v>
+        <v>41591</v>
       </c>
       <c r="B528" s="6">
         <v>9.4</v>
@@ -15769,10 +15924,11 @@
       <c r="I528" s="6">
         <v>216.4</v>
       </c>
-    </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K528" s="1"/>
+    </row>
+    <row r="529" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
-        <v>45273</v>
+        <v>41621</v>
       </c>
       <c r="B529" s="6">
         <v>9</v>
@@ -15798,10 +15954,11 @@
       <c r="I529" s="6">
         <v>219.5</v>
       </c>
-    </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K529" s="1"/>
+    </row>
+    <row r="530" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
-        <v>44940</v>
+        <v>41653</v>
       </c>
       <c r="B530" s="6">
         <v>8.5</v>
@@ -15827,10 +15984,11 @@
       <c r="I530" s="6">
         <v>221.9</v>
       </c>
-    </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K530" s="1"/>
+    </row>
+    <row r="531" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
-        <v>44971</v>
+        <v>41684</v>
       </c>
       <c r="B531" s="6">
         <v>8.6</v>
@@ -15856,10 +16014,11 @@
       <c r="I531" s="6">
         <v>206.2</v>
       </c>
-    </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K531" s="1"/>
+    </row>
+    <row r="532" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
-        <v>44999</v>
+        <v>41712</v>
       </c>
       <c r="B532" s="6">
         <v>11.1</v>
@@ -15885,10 +16044,11 @@
       <c r="I532" s="6">
         <v>183.8</v>
       </c>
-    </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K532" s="1"/>
+    </row>
+    <row r="533" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
-        <v>45030</v>
+        <v>41743</v>
       </c>
       <c r="B533" s="6">
         <v>12.2</v>
@@ -15914,10 +16074,11 @@
       <c r="I533" s="6">
         <v>192.5</v>
       </c>
-    </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K533" s="1"/>
+    </row>
+    <row r="534" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
-        <v>45060</v>
+        <v>41773</v>
       </c>
       <c r="B534" s="6">
         <v>11.8</v>
@@ -15943,10 +16104,11 @@
       <c r="I534" s="6">
         <v>217.9</v>
       </c>
-    </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K534" s="1"/>
+    </row>
+    <row r="535" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
-        <v>45091</v>
+        <v>41804</v>
       </c>
       <c r="B535" s="6">
         <v>11.5</v>
@@ -15972,10 +16134,11 @@
       <c r="I535" s="6">
         <v>204.3</v>
       </c>
-    </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K535" s="1"/>
+    </row>
+    <row r="536" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
-        <v>45121</v>
+        <v>41834</v>
       </c>
       <c r="B536" s="6">
         <v>11.5</v>
@@ -16001,10 +16164,11 @@
       <c r="I536" s="6">
         <v>189.6</v>
       </c>
-    </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K536" s="1"/>
+    </row>
+    <row r="537" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
-        <v>45152</v>
+        <v>41865</v>
       </c>
       <c r="B537" s="6">
         <v>10.8</v>
@@ -16030,10 +16194,11 @@
       <c r="I537" s="6">
         <v>225.1</v>
       </c>
-    </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K537" s="1"/>
+    </row>
+    <row r="538" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
-        <v>45183</v>
+        <v>41896</v>
       </c>
       <c r="B538" s="6">
         <v>10.3</v>
@@ -16059,10 +16224,11 @@
       <c r="I538" s="6">
         <v>232.1</v>
       </c>
-    </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K538" s="1"/>
+    </row>
+    <row r="539" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
-        <v>45213</v>
+        <v>41926</v>
       </c>
       <c r="B539" s="6">
         <v>10</v>
@@ -16088,10 +16254,11 @@
       <c r="I539" s="6">
         <v>220.3</v>
       </c>
-    </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K539" s="1"/>
+    </row>
+    <row r="540" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
-        <v>45244</v>
+        <v>41957</v>
       </c>
       <c r="B540" s="6">
         <v>9.3000000000000007</v>
@@ -16117,10 +16284,11 @@
       <c r="I540" s="6">
         <v>236.9</v>
       </c>
-    </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K540" s="1"/>
+    </row>
+    <row r="541" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
-        <v>45274</v>
+        <v>41987</v>
       </c>
       <c r="B541" s="6">
         <v>9</v>
@@ -16146,10 +16314,11 @@
       <c r="I541" s="6">
         <v>240.1</v>
       </c>
-    </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K541" s="1"/>
+    </row>
+    <row r="542" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
-        <v>44941</v>
+        <v>42019</v>
       </c>
       <c r="B542" s="6">
         <v>7.6</v>
@@ -16175,10 +16344,11 @@
       <c r="I542" s="6">
         <v>249.7</v>
       </c>
-    </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K542" s="1"/>
+    </row>
+    <row r="543" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
-        <v>44972</v>
+        <v>42050</v>
       </c>
       <c r="B543" s="6">
         <v>6.4</v>
@@ -16204,10 +16374,11 @@
       <c r="I543" s="6">
         <v>254.2</v>
       </c>
-    </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K543" s="1"/>
+    </row>
+    <row r="544" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
-        <v>45000</v>
+        <v>42078</v>
       </c>
       <c r="B544" s="6">
         <v>6.3</v>
@@ -16233,10 +16404,11 @@
       <c r="I544" s="6">
         <v>254.5</v>
       </c>
-    </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K544" s="1"/>
+    </row>
+    <row r="545" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
-        <v>45031</v>
+        <v>42109</v>
       </c>
       <c r="B545" s="6">
         <v>6.2</v>
@@ -16262,10 +16434,11 @@
       <c r="I545" s="6">
         <v>243.6</v>
       </c>
-    </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K545" s="1"/>
+    </row>
+    <row r="546" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
-        <v>45061</v>
+        <v>42139</v>
       </c>
       <c r="B546" s="6">
         <v>7.4</v>
@@ -16291,10 +16464,11 @@
       <c r="I546" s="6">
         <v>216.6</v>
       </c>
-    </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K546" s="1"/>
+    </row>
+    <row r="547" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
-        <v>45092</v>
+        <v>42170</v>
       </c>
       <c r="B547" s="6">
         <v>7.4</v>
@@ -16320,10 +16494,11 @@
       <c r="I547" s="6">
         <v>219.8</v>
       </c>
-    </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K547" s="1"/>
+    </row>
+    <row r="548" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
-        <v>45122</v>
+        <v>42200</v>
       </c>
       <c r="B548" s="6">
         <v>7.4</v>
@@ -16349,10 +16524,11 @@
       <c r="I548" s="6">
         <v>232.2</v>
       </c>
-    </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K548" s="1"/>
+    </row>
+    <row r="549" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
-        <v>45153</v>
+        <v>42231</v>
       </c>
       <c r="B549" s="6">
         <v>6.6</v>
@@ -16378,10 +16554,11 @@
       <c r="I549" s="6">
         <v>231.6</v>
       </c>
-    </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K549" s="1"/>
+    </row>
+    <row r="550" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
-        <v>45184</v>
+        <v>42262</v>
       </c>
       <c r="B550" s="6">
         <v>5.9</v>
@@ -16407,10 +16584,11 @@
       <c r="I550" s="6">
         <v>240.3</v>
       </c>
-    </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K550" s="1"/>
+    </row>
+    <row r="551" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
-        <v>45214</v>
+        <v>42292</v>
       </c>
       <c r="B551" s="6">
         <v>6.4</v>
@@ -16436,10 +16614,11 @@
       <c r="I551" s="6">
         <v>240.7</v>
       </c>
-    </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K551" s="1"/>
+    </row>
+    <row r="552" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
-        <v>45245</v>
+        <v>42323</v>
       </c>
       <c r="B552" s="6">
         <v>5.6</v>
@@ -16465,10 +16644,11 @@
       <c r="I552" s="6">
         <v>245.8</v>
       </c>
-    </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K552" s="1"/>
+    </row>
+    <row r="553" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
-        <v>45275</v>
+        <v>42353</v>
       </c>
       <c r="B553" s="6">
         <v>5.2</v>
@@ -16494,10 +16674,11 @@
       <c r="I553" s="6">
         <v>245.6</v>
       </c>
-    </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K553" s="1"/>
+    </row>
+    <row r="554" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
-        <v>44942</v>
+        <v>42385</v>
       </c>
       <c r="B554" s="6">
         <v>5</v>
@@ -16523,10 +16704,11 @@
       <c r="I554" s="6">
         <v>239.2</v>
       </c>
-    </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K554" s="1"/>
+    </row>
+    <row r="555" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
-        <v>44973</v>
+        <v>42416</v>
       </c>
       <c r="B555" s="6">
         <v>5.8</v>
@@ -16552,10 +16734,11 @@
       <c r="I555" s="6">
         <v>229.7</v>
       </c>
-    </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K555" s="1"/>
+    </row>
+    <row r="556" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
-        <v>45001</v>
+        <v>42445</v>
       </c>
       <c r="B556" s="6">
         <v>6</v>
@@ -16581,10 +16764,11 @@
       <c r="I556" s="6">
         <v>230.7</v>
       </c>
-    </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K556" s="1"/>
+    </row>
+    <row r="557" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
-        <v>45032</v>
+        <v>42476</v>
       </c>
       <c r="B557" s="6">
         <v>6.6</v>
@@ -16610,10 +16794,11 @@
       <c r="I557" s="6">
         <v>229.8</v>
       </c>
-    </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K557" s="1"/>
+    </row>
+    <row r="558" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
-        <v>45062</v>
+        <v>42506</v>
       </c>
       <c r="B558" s="6">
         <v>7.2</v>
@@ -16639,10 +16824,11 @@
       <c r="I558" s="6">
         <v>222.1</v>
       </c>
-    </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K558" s="1"/>
+    </row>
+    <row r="559" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
-        <v>45093</v>
+        <v>42537</v>
       </c>
       <c r="B559" s="6">
         <v>7.6</v>
@@ -16668,10 +16854,11 @@
       <c r="I559" s="6">
         <v>218.2</v>
       </c>
-    </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K559" s="1"/>
+    </row>
+    <row r="560" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
-        <v>45123</v>
+        <v>42567</v>
       </c>
       <c r="B560" s="6">
         <v>7.1</v>
@@ -16697,10 +16884,11 @@
       <c r="I560" s="6">
         <v>214.6</v>
       </c>
-    </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K560" s="1"/>
+    </row>
+    <row r="561" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
-        <v>45154</v>
+        <v>42598</v>
       </c>
       <c r="B561" s="6">
         <v>6.8</v>
@@ -16726,10 +16914,11 @@
       <c r="I561" s="6">
         <v>226.5</v>
       </c>
-    </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K561" s="1"/>
+    </row>
+    <row r="562" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
-        <v>45185</v>
+        <v>42629</v>
       </c>
       <c r="B562" s="6">
         <v>6.2</v>
@@ -16755,10 +16944,11 @@
       <c r="I562" s="6">
         <v>223.9</v>
       </c>
-    </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K562" s="1"/>
+    </row>
+    <row r="563" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
-        <v>45215</v>
+        <v>42659</v>
       </c>
       <c r="B563" s="6">
         <v>5.4</v>
@@ -16784,10 +16974,11 @@
       <c r="I563" s="6">
         <v>231.1</v>
       </c>
-    </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K563" s="1"/>
+    </row>
+    <row r="564" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
-        <v>45246</v>
+        <v>42690</v>
       </c>
       <c r="B564" s="6">
         <v>5.2</v>
@@ -16813,10 +17004,11 @@
       <c r="I564" s="6">
         <v>219.2</v>
       </c>
-    </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K564" s="1"/>
+    </row>
+    <row r="565" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
-        <v>45276</v>
+        <v>42720</v>
       </c>
       <c r="B565" s="6">
         <v>5.8</v>
@@ -16842,10 +17034,11 @@
       <c r="I565" s="6">
         <v>209.7</v>
       </c>
-    </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K565" s="1"/>
+    </row>
+    <row r="566" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
-        <v>44943</v>
+        <v>42752</v>
       </c>
       <c r="B566" s="6">
         <v>6.4</v>
@@ -16871,10 +17064,11 @@
       <c r="I566" s="6">
         <v>205.4</v>
       </c>
-    </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K566" s="1"/>
+    </row>
+    <row r="567" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
-        <v>44974</v>
+        <v>42783</v>
       </c>
       <c r="B567" s="6">
         <v>7</v>
@@ -16900,10 +17094,11 @@
       <c r="I567" s="6">
         <v>208.7</v>
       </c>
-    </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K567" s="1"/>
+    </row>
+    <row r="568" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
-        <v>45002</v>
+        <v>42811</v>
       </c>
       <c r="B568" s="6">
         <v>6.5</v>
@@ -16929,10 +17124,11 @@
       <c r="I568" s="6">
         <v>215.5</v>
       </c>
-    </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K568" s="1"/>
+    </row>
+    <row r="569" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
-        <v>45033</v>
+        <v>42842</v>
       </c>
       <c r="B569" s="6">
         <v>5.7</v>
@@ -16958,10 +17154,11 @@
       <c r="I569" s="6">
         <v>215.9</v>
       </c>
-    </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K569" s="1"/>
+    </row>
+    <row r="570" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
-        <v>45063</v>
+        <v>42872</v>
       </c>
       <c r="B570" s="6">
         <v>6.4</v>
@@ -16987,10 +17184,11 @@
       <c r="I570" s="6">
         <v>204.6</v>
       </c>
-    </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K570" s="1"/>
+    </row>
+    <row r="571" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
-        <v>45094</v>
+        <v>42903</v>
       </c>
       <c r="B571" s="6">
         <v>7.8</v>
@@ -17016,10 +17214,11 @@
       <c r="I571" s="6">
         <v>197.2</v>
       </c>
-    </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K571" s="1"/>
+    </row>
+    <row r="572" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
-        <v>45124</v>
+        <v>42933</v>
       </c>
       <c r="B572" s="6">
         <v>7.9</v>
@@ -17045,10 +17244,11 @@
       <c r="I572" s="6">
         <v>196.8</v>
       </c>
-    </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K572" s="1"/>
+    </row>
+    <row r="573" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
-        <v>45155</v>
+        <v>42964</v>
       </c>
       <c r="B573" s="6">
         <v>7.8</v>
@@ -17074,10 +17274,11 @@
       <c r="I573" s="6">
         <v>235.1</v>
       </c>
-    </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K573" s="1"/>
+    </row>
+    <row r="574" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
-        <v>45186</v>
+        <v>42995</v>
       </c>
       <c r="B574" s="6">
         <v>6.9</v>
@@ -17103,10 +17304,11 @@
       <c r="I574" s="6">
         <v>269.2</v>
       </c>
-    </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K574" s="1"/>
+    </row>
+    <row r="575" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
-        <v>45216</v>
+        <v>43025</v>
       </c>
       <c r="B575" s="6">
         <v>7.5</v>
@@ -17132,10 +17334,11 @@
       <c r="I575" s="6">
         <v>268.8</v>
       </c>
-    </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K575" s="1"/>
+    </row>
+    <row r="576" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
-        <v>45247</v>
+        <v>43056</v>
       </c>
       <c r="B576" s="6">
         <v>7</v>
@@ -17161,10 +17364,11 @@
       <c r="I576" s="6">
         <v>232</v>
       </c>
-    </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K576" s="1"/>
+    </row>
+    <row r="577" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
-        <v>45277</v>
+        <v>43086</v>
       </c>
       <c r="B577" s="6">
         <v>6.9</v>
@@ -17190,10 +17394,11 @@
       <c r="I577" s="6">
         <v>227.4</v>
       </c>
-    </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K577" s="1"/>
+    </row>
+    <row r="578" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
-        <v>44944</v>
+        <v>43118</v>
       </c>
       <c r="B578" s="6">
         <v>7.3</v>
@@ -17219,10 +17424,11 @@
       <c r="I578" s="6">
         <v>224.8</v>
       </c>
-    </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K578" s="1"/>
+    </row>
+    <row r="579" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
-        <v>44975</v>
+        <v>43149</v>
       </c>
       <c r="B579" s="6">
         <v>7.7</v>
@@ -17248,10 +17454,11 @@
       <c r="I579" s="6">
         <v>229</v>
       </c>
-    </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K579" s="1"/>
+    </row>
+    <row r="580" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
-        <v>45003</v>
+        <v>43177</v>
       </c>
       <c r="B580" s="6">
         <v>7</v>
@@ -17277,10 +17484,11 @@
       <c r="I580" s="6">
         <v>242.8</v>
       </c>
-    </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K580" s="1"/>
+    </row>
+    <row r="581" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
-        <v>45034</v>
+        <v>43208</v>
       </c>
       <c r="B581" s="6">
         <v>6.1</v>
@@ -17306,10 +17514,11 @@
       <c r="I581" s="6">
         <v>251.8</v>
       </c>
-    </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K581" s="1"/>
+    </row>
+    <row r="582" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
-        <v>45064</v>
+        <v>43238</v>
       </c>
       <c r="B582" s="6">
         <v>7</v>
@@ -17335,10 +17544,11 @@
       <c r="I582" s="6">
         <v>240.8</v>
       </c>
-    </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K582" s="1"/>
+    </row>
+    <row r="583" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
-        <v>45095</v>
+        <v>43269</v>
       </c>
       <c r="B583" s="6">
         <v>7.7</v>
@@ -17364,10 +17574,11 @@
       <c r="I583" s="6">
         <v>209.4</v>
       </c>
-    </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K583" s="1"/>
+    </row>
+    <row r="584" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
-        <v>45125</v>
+        <v>43299</v>
       </c>
       <c r="B584" s="6">
         <v>7.3</v>
@@ -17393,10 +17604,11 @@
       <c r="I584" s="6">
         <v>209.4</v>
       </c>
-    </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K584" s="1"/>
+    </row>
+    <row r="585" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
-        <v>45156</v>
+        <v>43330</v>
       </c>
       <c r="B585" s="6">
         <v>6</v>
@@ -17422,10 +17634,11 @@
       <c r="I585" s="6">
         <v>257</v>
       </c>
-    </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K585" s="1"/>
+    </row>
+    <row r="586" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
-        <v>45187</v>
+        <v>43361</v>
       </c>
       <c r="B586" s="6">
         <v>5.7</v>
@@ -17451,10 +17664,11 @@
       <c r="I586" s="6">
         <v>242.4</v>
       </c>
-    </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K586" s="1"/>
+    </row>
+    <row r="587" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
-        <v>45217</v>
+        <v>43391</v>
       </c>
       <c r="B587" s="6">
         <v>6.5</v>
@@ -17480,10 +17694,11 @@
       <c r="I587" s="6">
         <v>223.7</v>
       </c>
-    </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K587" s="1"/>
+    </row>
+    <row r="588" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
-        <v>45248</v>
+        <v>43422</v>
       </c>
       <c r="B588" s="6">
         <v>6.5</v>
@@ -17509,10 +17724,11 @@
       <c r="I588" s="6">
         <v>240.8</v>
       </c>
-    </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K588" s="1"/>
+    </row>
+    <row r="589" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
-        <v>45278</v>
+        <v>43452</v>
       </c>
       <c r="B589" s="6">
         <v>5.6</v>
@@ -17538,10 +17754,11 @@
       <c r="I589" s="6">
         <v>239.8</v>
       </c>
-    </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K589" s="1"/>
+    </row>
+    <row r="590" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
-        <v>44945</v>
+        <v>43484</v>
       </c>
       <c r="B590" s="6">
         <v>5.7</v>
@@ -17567,10 +17784,11 @@
       <c r="I590" s="6">
         <v>236.4</v>
       </c>
-    </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K590" s="1"/>
+    </row>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
-        <v>44976</v>
+        <v>43515</v>
       </c>
       <c r="B591" s="6">
         <v>5.8</v>
@@ -17596,10 +17814,11 @@
       <c r="I591" s="6">
         <v>253.7</v>
       </c>
-    </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K591" s="1"/>
+    </row>
+    <row r="592" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
-        <v>45004</v>
+        <v>43543</v>
       </c>
       <c r="B592" s="6">
         <v>5.8</v>
@@ -17625,10 +17844,11 @@
       <c r="I592" s="6">
         <v>241</v>
       </c>
-    </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K592" s="1"/>
+    </row>
+    <row r="593" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
-        <v>45035</v>
+        <v>43574</v>
       </c>
       <c r="B593" s="6">
         <v>7.3</v>
@@ -17654,10 +17874,11 @@
       <c r="I593" s="6">
         <v>213.8</v>
       </c>
-    </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K593" s="1"/>
+    </row>
+    <row r="594" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
-        <v>45065</v>
+        <v>43604</v>
       </c>
       <c r="B594" s="6">
         <v>8</v>
@@ -17683,10 +17904,11 @@
       <c r="I594" s="6">
         <v>232.3</v>
       </c>
-    </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K594" s="1"/>
+    </row>
+    <row r="595" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
-        <v>45096</v>
+        <v>43635</v>
       </c>
       <c r="B595" s="6">
         <v>7.8</v>
@@ -17712,10 +17934,11 @@
       <c r="I595" s="6">
         <v>243.6</v>
       </c>
-    </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K595" s="1"/>
+    </row>
+    <row r="596" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
-        <v>45126</v>
+        <v>43665</v>
       </c>
       <c r="B596" s="6">
         <v>7.2</v>
@@ -17741,10 +17964,11 @@
       <c r="I596" s="6">
         <v>244.1</v>
       </c>
-    </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K596" s="1"/>
+    </row>
+    <row r="597" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
-        <v>45157</v>
+        <v>43696</v>
       </c>
       <c r="B597" s="6">
         <v>7.1</v>
@@ -17770,10 +17994,11 @@
       <c r="I597" s="6">
         <v>228.1</v>
       </c>
-    </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K597" s="1"/>
+    </row>
+    <row r="598" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
-        <v>45188</v>
+        <v>43727</v>
       </c>
       <c r="B598" s="6">
         <v>6</v>
@@ -17799,10 +18024,11 @@
       <c r="I598" s="6">
         <v>256.2</v>
       </c>
-    </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K598" s="1"/>
+    </row>
+    <row r="599" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
-        <v>45218</v>
+        <v>43757</v>
       </c>
       <c r="B599" s="6">
         <v>6</v>
@@ -17828,10 +18054,11 @@
       <c r="I599" s="6">
         <v>246.2</v>
       </c>
-    </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K599" s="1"/>
+    </row>
+    <row r="600" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
-        <v>45249</v>
+        <v>43788</v>
       </c>
       <c r="B600" s="6">
         <v>5.5</v>
@@ -17857,10 +18084,11 @@
       <c r="I600" s="6">
         <v>232.9</v>
       </c>
-    </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K600" s="1"/>
+    </row>
+    <row r="601" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
-        <v>45279</v>
+        <v>43818</v>
       </c>
       <c r="B601" s="6">
         <v>6</v>
@@ -17886,10 +18114,11 @@
       <c r="I601" s="6">
         <v>239.2</v>
       </c>
-    </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K601" s="1"/>
+    </row>
+    <row r="602" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
-        <v>44946</v>
+        <v>43850</v>
       </c>
       <c r="B602" s="6">
         <v>6.2</v>
@@ -17915,10 +18144,11 @@
       <c r="I602" s="6">
         <v>247.5</v>
       </c>
-    </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K602" s="1"/>
+    </row>
+    <row r="603" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
-        <v>44977</v>
+        <v>43881</v>
       </c>
       <c r="B603" s="6">
         <v>6.5</v>
@@ -17944,10 +18174,11 @@
       <c r="I603" s="6">
         <v>271</v>
       </c>
-    </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K603" s="1"/>
+    </row>
+    <row r="604" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
-        <v>45005</v>
+        <v>43910</v>
       </c>
       <c r="B604" s="6">
         <v>6.4</v>
@@ -17973,10 +18204,11 @@
       <c r="I604" s="6">
         <v>255.3</v>
       </c>
-    </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K604" s="1"/>
+    </row>
+    <row r="605" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
-        <v>45036</v>
+        <v>43941</v>
       </c>
       <c r="B605" s="6">
         <v>5.8</v>
@@ -18002,10 +18234,11 @@
       <c r="I605" s="6">
         <v>267.60000000000002</v>
       </c>
-    </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K605" s="1"/>
+    </row>
+    <row r="606" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
-        <v>45066</v>
+        <v>43971</v>
       </c>
       <c r="B606" s="6">
         <v>5.4</v>
@@ -18031,10 +18264,11 @@
       <c r="I606" s="6">
         <v>204.2</v>
       </c>
-    </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K606" s="1"/>
+    </row>
+    <row r="607" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
-        <v>45097</v>
+        <v>44002</v>
       </c>
       <c r="B607" s="6">
         <v>5</v>
@@ -18060,10 +18294,11 @@
       <c r="I607" s="6">
         <v>284.8</v>
       </c>
-    </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K607" s="1"/>
+    </row>
+    <row r="608" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
-        <v>45127</v>
+        <v>44032</v>
       </c>
       <c r="B608" s="6">
         <v>5.2</v>
@@ -18089,10 +18324,11 @@
       <c r="I608" s="6">
         <v>282.2</v>
       </c>
-    </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K608" s="1"/>
+    </row>
+    <row r="609" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
-        <v>45158</v>
+        <v>44063</v>
       </c>
       <c r="B609" s="6">
         <v>5.7</v>
@@ -18118,10 +18354,11 @@
       <c r="I609" s="6">
         <v>261.39999999999998</v>
       </c>
-    </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K609" s="1"/>
+    </row>
+    <row r="610" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
-        <v>45189</v>
+        <v>44094</v>
       </c>
       <c r="B610" s="6">
         <v>6.5</v>
@@ -18147,10 +18384,11 @@
       <c r="I610" s="6">
         <v>236.3</v>
       </c>
-    </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K610" s="1"/>
+    </row>
+    <row r="611" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
-        <v>45219</v>
+        <v>44124</v>
       </c>
       <c r="B611" s="6">
         <v>7.3</v>
@@ -18176,10 +18414,11 @@
       <c r="I611" s="6">
         <v>221.9</v>
       </c>
-    </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K611" s="1"/>
+    </row>
+    <row r="612" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
-        <v>45250</v>
+        <v>44155</v>
       </c>
       <c r="B612" s="6">
         <v>7.6</v>
@@ -18205,10 +18444,11 @@
       <c r="I612" s="6">
         <v>256.8</v>
       </c>
-    </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K612" s="1"/>
+    </row>
+    <row r="613" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
-        <v>45280</v>
+        <v>44185</v>
       </c>
       <c r="B613" s="6">
         <v>7.3</v>
@@ -18234,10 +18474,11 @@
       <c r="I613" s="6">
         <v>269.10000000000002</v>
       </c>
-    </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K613" s="1"/>
+    </row>
+    <row r="614" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
-        <v>44947</v>
+        <v>44217</v>
       </c>
       <c r="B614" s="6">
         <v>6.9</v>
@@ -18263,10 +18504,11 @@
       <c r="I614" s="6">
         <v>251.8</v>
       </c>
-    </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K614" s="1"/>
+    </row>
+    <row r="615" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
-        <v>44978</v>
+        <v>44248</v>
       </c>
       <c r="B615" s="6">
         <v>7.4</v>
@@ -18292,10 +18534,11 @@
       <c r="I615" s="6">
         <v>241</v>
       </c>
-    </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K615" s="1"/>
+    </row>
+    <row r="616" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
-        <v>45006</v>
+        <v>44276</v>
       </c>
       <c r="B616" s="6">
         <v>8.6999999999999993</v>
@@ -18321,10 +18564,11 @@
       <c r="I616" s="6">
         <v>212.1</v>
       </c>
-    </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K616" s="1"/>
+    </row>
+    <row r="617" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
-        <v>45037</v>
+        <v>44307</v>
       </c>
       <c r="B617" s="6">
         <v>10.199999999999999</v>
@@ -18350,10 +18594,11 @@
       <c r="I617" s="6">
         <v>219.9</v>
       </c>
-    </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K617" s="1"/>
+    </row>
+    <row r="618" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
-        <v>45067</v>
+        <v>44337</v>
       </c>
       <c r="B618" s="6">
         <v>11</v>
@@ -18379,10 +18624,11 @@
       <c r="I618" s="6">
         <v>222.1</v>
       </c>
-    </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K618" s="1"/>
+    </row>
+    <row r="619" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
-        <v>45098</v>
+        <v>44368</v>
       </c>
       <c r="B619" s="6">
         <v>11.9</v>
@@ -18408,10 +18654,11 @@
       <c r="I619" s="6">
         <v>229.6</v>
       </c>
-    </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K619" s="1"/>
+    </row>
+    <row r="620" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
-        <v>45128</v>
+        <v>44398</v>
       </c>
       <c r="B620" s="6">
         <v>11.3</v>
@@ -18437,10 +18684,11 @@
       <c r="I620" s="6">
         <v>229.1</v>
       </c>
-    </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K620" s="1"/>
+    </row>
+    <row r="621" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
-        <v>45159</v>
+        <v>44429</v>
       </c>
       <c r="B621" s="6">
         <v>11.2</v>
@@ -18466,10 +18714,11 @@
       <c r="I621" s="6">
         <v>223.7</v>
       </c>
-    </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K621" s="1"/>
+    </row>
+    <row r="622" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
-        <v>45190</v>
+        <v>44460</v>
       </c>
       <c r="B622" s="6">
         <v>10.8</v>
@@ -18495,10 +18744,11 @@
       <c r="I622" s="6">
         <v>265.39999999999998</v>
       </c>
-    </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K622" s="1"/>
+    </row>
+    <row r="623" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
-        <v>45220</v>
+        <v>44490</v>
       </c>
       <c r="B623" s="6">
         <v>9.6</v>
@@ -18524,10 +18774,11 @@
       <c r="I623" s="6">
         <v>279.5</v>
       </c>
-    </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K623" s="1"/>
+    </row>
+    <row r="624" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
-        <v>45251</v>
+        <v>44521</v>
       </c>
       <c r="B624" s="6">
         <v>9.4</v>
@@ -18553,10 +18804,11 @@
       <c r="I624" s="6">
         <v>308.89999999999998</v>
       </c>
-    </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K624" s="1"/>
+    </row>
+    <row r="625" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
-        <v>45281</v>
+        <v>44551</v>
       </c>
       <c r="B625" s="6">
         <v>9.3000000000000007</v>
@@ -18582,10 +18834,11 @@
       <c r="I625" s="6">
         <v>309.2</v>
       </c>
-    </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K625" s="1"/>
+    </row>
+    <row r="626" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
-        <v>44948</v>
+        <v>44583</v>
       </c>
       <c r="B626" s="6">
         <v>9.1999999999999993</v>
@@ -18611,10 +18864,11 @@
       <c r="I626" s="6">
         <v>292.3</v>
       </c>
-    </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K626" s="1"/>
+    </row>
+    <row r="627" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
-        <v>44979</v>
+        <v>44614</v>
       </c>
       <c r="B627" s="6">
         <v>10.3</v>
@@ -18640,10 +18894,11 @@
       <c r="I627" s="6">
         <v>263.3</v>
       </c>
-    </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K627" s="1"/>
+    </row>
+    <row r="628" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
-        <v>45007</v>
+        <v>44642</v>
       </c>
       <c r="B628" s="6">
         <v>11.3</v>
@@ -18669,10 +18924,11 @@
       <c r="I628" s="6">
         <v>271.39999999999998</v>
       </c>
-    </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K628" s="1"/>
+    </row>
+    <row r="629" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
-        <v>45038</v>
+        <v>44673</v>
       </c>
       <c r="B629" s="6">
         <v>11.5</v>
@@ -18698,10 +18954,11 @@
       <c r="I629" s="6">
         <v>279.8</v>
       </c>
-    </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K629" s="1"/>
+    </row>
+    <row r="630" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
-        <v>45068</v>
+        <v>44703</v>
       </c>
       <c r="B630" s="6">
         <v>12.1</v>
@@ -18727,10 +18984,11 @@
       <c r="I630" s="6">
         <v>290.3</v>
       </c>
-    </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K630" s="1"/>
+    </row>
+    <row r="631" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
-        <v>45099</v>
+        <v>44734</v>
       </c>
       <c r="B631" s="6">
         <v>12.8</v>
@@ -18756,10 +19014,11 @@
       <c r="I631" s="6">
         <v>289.39999999999998</v>
       </c>
-    </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K631" s="1"/>
+    </row>
+    <row r="632" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
-        <v>45129</v>
+        <v>44764</v>
       </c>
       <c r="B632" s="6">
         <v>12.6</v>
@@ -18785,10 +19044,11 @@
       <c r="I632" s="6">
         <v>266</v>
       </c>
-    </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K632" s="1"/>
+    </row>
+    <row r="633" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
-        <v>45160</v>
+        <v>44795</v>
       </c>
       <c r="B633" s="6">
         <v>13</v>
@@ -18814,10 +19074,11 @@
       <c r="I633" s="6">
         <v>268.10000000000002</v>
       </c>
-    </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K633" s="1"/>
+    </row>
+    <row r="634" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
-        <v>45191</v>
+        <v>44826</v>
       </c>
       <c r="B634" s="6">
         <v>12.2</v>
@@ -18843,10 +19104,11 @@
       <c r="I634" s="6">
         <v>307</v>
       </c>
-    </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K634" s="1"/>
+    </row>
+    <row r="635" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
-        <v>45221</v>
+        <v>44856</v>
       </c>
       <c r="B635" s="6">
         <v>11.7</v>
@@ -18872,10 +19134,11 @@
       <c r="I635" s="6">
         <v>314</v>
       </c>
-    </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K635" s="1"/>
+    </row>
+    <row r="636" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
-        <v>45252</v>
+        <v>44887</v>
       </c>
       <c r="B636" s="6">
         <v>11.6</v>
@@ -18901,10 +19164,11 @@
       <c r="I636" s="6">
         <v>319.8</v>
       </c>
-    </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K636" s="1"/>
+    </row>
+    <row r="637" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
-        <v>45282</v>
+        <v>44917</v>
       </c>
       <c r="B637" s="6">
         <v>11.4</v>
@@ -18930,6 +19194,859 @@
       <c r="I637" s="6">
         <v>320.39999999999998</v>
       </c>
+      <c r="K637" s="1"/>
+    </row>
+    <row r="638" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K638" s="1"/>
+    </row>
+    <row r="639" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K639" s="1"/>
+    </row>
+    <row r="640" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K640" s="1"/>
+    </row>
+    <row r="641" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K641" s="1"/>
+    </row>
+    <row r="642" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K642" s="1"/>
+    </row>
+    <row r="643" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K643" s="1"/>
+    </row>
+    <row r="644" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K644" s="1"/>
+    </row>
+    <row r="645" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K645" s="1"/>
+    </row>
+    <row r="646" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K646" s="1"/>
+    </row>
+    <row r="647" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K647" s="1"/>
+    </row>
+    <row r="648" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K648" s="1"/>
+    </row>
+    <row r="649" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K649" s="1"/>
+    </row>
+    <row r="650" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K650" s="1"/>
+    </row>
+    <row r="651" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K651" s="1"/>
+    </row>
+    <row r="652" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K652" s="1"/>
+    </row>
+    <row r="653" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K653" s="1"/>
+    </row>
+    <row r="654" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K654" s="1"/>
+    </row>
+    <row r="655" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K655" s="1"/>
+    </row>
+    <row r="656" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K656" s="1"/>
+    </row>
+    <row r="657" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K657" s="1"/>
+    </row>
+    <row r="658" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K658" s="1"/>
+    </row>
+    <row r="659" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K659" s="1"/>
+    </row>
+    <row r="660" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K660" s="1"/>
+    </row>
+    <row r="661" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K661" s="1"/>
+    </row>
+    <row r="662" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K662" s="1"/>
+    </row>
+    <row r="663" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K663" s="1"/>
+    </row>
+    <row r="664" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K664" s="1"/>
+    </row>
+    <row r="665" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K665" s="1"/>
+    </row>
+    <row r="666" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K666" s="1"/>
+    </row>
+    <row r="667" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K667" s="1"/>
+    </row>
+    <row r="668" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K668" s="1"/>
+    </row>
+    <row r="669" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K669" s="1"/>
+    </row>
+    <row r="670" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K670" s="1"/>
+    </row>
+    <row r="671" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K671" s="1"/>
+    </row>
+    <row r="672" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K672" s="1"/>
+    </row>
+    <row r="673" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K673" s="1"/>
+    </row>
+    <row r="674" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K674" s="1"/>
+    </row>
+    <row r="675" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K675" s="1"/>
+    </row>
+    <row r="676" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K676" s="1"/>
+    </row>
+    <row r="677" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K677" s="1"/>
+    </row>
+    <row r="678" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K678" s="1"/>
+    </row>
+    <row r="679" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K679" s="1"/>
+    </row>
+    <row r="680" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K680" s="1"/>
+    </row>
+    <row r="681" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K681" s="1"/>
+    </row>
+    <row r="682" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K682" s="1"/>
+    </row>
+    <row r="683" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K683" s="1"/>
+    </row>
+    <row r="684" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K684" s="1"/>
+    </row>
+    <row r="685" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K685" s="1"/>
+    </row>
+    <row r="686" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K686" s="1"/>
+    </row>
+    <row r="687" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K687" s="1"/>
+    </row>
+    <row r="688" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K688" s="1"/>
+    </row>
+    <row r="689" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K689" s="1"/>
+    </row>
+    <row r="690" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K690" s="1"/>
+    </row>
+    <row r="691" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K691" s="1"/>
+    </row>
+    <row r="692" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K692" s="1"/>
+    </row>
+    <row r="693" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K693" s="1"/>
+    </row>
+    <row r="694" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K694" s="1"/>
+    </row>
+    <row r="695" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K695" s="1"/>
+    </row>
+    <row r="696" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K696" s="1"/>
+    </row>
+    <row r="697" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K697" s="1"/>
+    </row>
+    <row r="698" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K698" s="1"/>
+    </row>
+    <row r="699" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K699" s="1"/>
+    </row>
+    <row r="700" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K700" s="1"/>
+    </row>
+    <row r="701" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K701" s="1"/>
+    </row>
+    <row r="702" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K702" s="1"/>
+    </row>
+    <row r="703" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K703" s="1"/>
+    </row>
+    <row r="704" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K704" s="1"/>
+    </row>
+    <row r="705" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K705" s="1"/>
+    </row>
+    <row r="706" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K706" s="1"/>
+    </row>
+    <row r="707" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K707" s="1"/>
+    </row>
+    <row r="708" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K708" s="1"/>
+    </row>
+    <row r="709" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K709" s="1"/>
+    </row>
+    <row r="710" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K710" s="1"/>
+    </row>
+    <row r="711" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K711" s="1"/>
+    </row>
+    <row r="712" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K712" s="1"/>
+    </row>
+    <row r="713" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K713" s="1"/>
+    </row>
+    <row r="714" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K714" s="1"/>
+    </row>
+    <row r="715" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K715" s="1"/>
+    </row>
+    <row r="716" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K716" s="1"/>
+    </row>
+    <row r="717" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K717" s="1"/>
+    </row>
+    <row r="718" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K718" s="1"/>
+    </row>
+    <row r="719" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K719" s="1"/>
+    </row>
+    <row r="720" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K720" s="1"/>
+    </row>
+    <row r="721" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K721" s="1"/>
+    </row>
+    <row r="722" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K722" s="1"/>
+    </row>
+    <row r="723" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K723" s="1"/>
+    </row>
+    <row r="724" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K724" s="1"/>
+    </row>
+    <row r="725" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K725" s="1"/>
+    </row>
+    <row r="726" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K726" s="1"/>
+    </row>
+    <row r="727" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K727" s="1"/>
+    </row>
+    <row r="728" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K728" s="1"/>
+    </row>
+    <row r="729" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K729" s="1"/>
+    </row>
+    <row r="730" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K730" s="1"/>
+    </row>
+    <row r="731" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K731" s="1"/>
+    </row>
+    <row r="732" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K732" s="1"/>
+    </row>
+    <row r="733" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K733" s="1"/>
+    </row>
+    <row r="734" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K734" s="1"/>
+    </row>
+    <row r="735" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K735" s="1"/>
+    </row>
+    <row r="736" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K736" s="1"/>
+    </row>
+    <row r="737" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K737" s="1"/>
+    </row>
+    <row r="738" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K738" s="1"/>
+    </row>
+    <row r="739" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K739" s="1"/>
+    </row>
+    <row r="740" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K740" s="1"/>
+    </row>
+    <row r="741" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K741" s="1"/>
+    </row>
+    <row r="742" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K742" s="1"/>
+    </row>
+    <row r="743" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K743" s="1"/>
+    </row>
+    <row r="744" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K744" s="1"/>
+    </row>
+    <row r="745" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K745" s="1"/>
+    </row>
+    <row r="746" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K746" s="1"/>
+    </row>
+    <row r="747" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K747" s="1"/>
+    </row>
+    <row r="748" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K748" s="1"/>
+    </row>
+    <row r="749" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K749" s="1"/>
+    </row>
+    <row r="750" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K750" s="1"/>
+    </row>
+    <row r="751" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K751" s="1"/>
+    </row>
+    <row r="752" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K752" s="1"/>
+    </row>
+    <row r="753" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K753" s="1"/>
+    </row>
+    <row r="754" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K754" s="1"/>
+    </row>
+    <row r="755" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K755" s="1"/>
+    </row>
+    <row r="756" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K756" s="1"/>
+    </row>
+    <row r="757" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K757" s="1"/>
+    </row>
+    <row r="758" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K758" s="1"/>
+    </row>
+    <row r="759" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K759" s="1"/>
+    </row>
+    <row r="760" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K760" s="1"/>
+    </row>
+    <row r="761" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K761" s="1"/>
+    </row>
+    <row r="762" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K762" s="1"/>
+    </row>
+    <row r="763" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K763" s="1"/>
+    </row>
+    <row r="764" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K764" s="1"/>
+    </row>
+    <row r="765" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K765" s="1"/>
+    </row>
+    <row r="766" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K766" s="1"/>
+    </row>
+    <row r="767" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K767" s="1"/>
+    </row>
+    <row r="768" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K768" s="1"/>
+    </row>
+    <row r="769" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K769" s="1"/>
+    </row>
+    <row r="770" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K770" s="1"/>
+    </row>
+    <row r="771" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K771" s="1"/>
+    </row>
+    <row r="772" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K772" s="1"/>
+    </row>
+    <row r="773" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K773" s="1"/>
+    </row>
+    <row r="774" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K774" s="1"/>
+    </row>
+    <row r="775" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K775" s="1"/>
+    </row>
+    <row r="776" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K776" s="1"/>
+    </row>
+    <row r="777" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K777" s="1"/>
+    </row>
+    <row r="778" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K778" s="1"/>
+    </row>
+    <row r="779" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K779" s="1"/>
+    </row>
+    <row r="780" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K780" s="1"/>
+    </row>
+    <row r="781" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K781" s="1"/>
+    </row>
+    <row r="782" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K782" s="1"/>
+    </row>
+    <row r="783" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K783" s="1"/>
+    </row>
+    <row r="784" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K784" s="1"/>
+    </row>
+    <row r="785" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K785" s="1"/>
+    </row>
+    <row r="786" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K786" s="1"/>
+    </row>
+    <row r="787" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K787" s="1"/>
+    </row>
+    <row r="788" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K788" s="1"/>
+    </row>
+    <row r="789" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K789" s="1"/>
+    </row>
+    <row r="790" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K790" s="1"/>
+    </row>
+    <row r="791" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K791" s="1"/>
+    </row>
+    <row r="792" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K792" s="1"/>
+    </row>
+    <row r="793" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K793" s="1"/>
+    </row>
+    <row r="794" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K794" s="1"/>
+    </row>
+    <row r="795" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K795" s="1"/>
+    </row>
+    <row r="796" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K796" s="1"/>
+    </row>
+    <row r="797" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K797" s="1"/>
+    </row>
+    <row r="798" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K798" s="1"/>
+    </row>
+    <row r="799" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K799" s="1"/>
+    </row>
+    <row r="800" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K800" s="1"/>
+    </row>
+    <row r="801" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K801" s="1"/>
+    </row>
+    <row r="802" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K802" s="1"/>
+    </row>
+    <row r="803" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K803" s="1"/>
+    </row>
+    <row r="804" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K804" s="1"/>
+    </row>
+    <row r="805" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K805" s="1"/>
+    </row>
+    <row r="806" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K806" s="1"/>
+    </row>
+    <row r="807" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K807" s="1"/>
+    </row>
+    <row r="808" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K808" s="1"/>
+    </row>
+    <row r="809" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K809" s="1"/>
+    </row>
+    <row r="810" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K810" s="1"/>
+    </row>
+    <row r="811" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K811" s="1"/>
+    </row>
+    <row r="812" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K812" s="1"/>
+    </row>
+    <row r="813" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K813" s="1"/>
+    </row>
+    <row r="814" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K814" s="1"/>
+    </row>
+    <row r="815" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K815" s="1"/>
+    </row>
+    <row r="816" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K816" s="1"/>
+    </row>
+    <row r="817" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K817" s="1"/>
+    </row>
+    <row r="818" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K818" s="1"/>
+    </row>
+    <row r="819" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K819" s="1"/>
+    </row>
+    <row r="820" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K820" s="1"/>
+    </row>
+    <row r="821" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K821" s="1"/>
+    </row>
+    <row r="822" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K822" s="1"/>
+    </row>
+    <row r="823" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K823" s="1"/>
+    </row>
+    <row r="824" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K824" s="1"/>
+    </row>
+    <row r="825" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K825" s="1"/>
+    </row>
+    <row r="826" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K826" s="1"/>
+    </row>
+    <row r="827" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K827" s="1"/>
+    </row>
+    <row r="828" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K828" s="1"/>
+    </row>
+    <row r="829" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K829" s="1"/>
+    </row>
+    <row r="830" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K830" s="1"/>
+    </row>
+    <row r="831" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K831" s="1"/>
+    </row>
+    <row r="832" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K832" s="1"/>
+    </row>
+    <row r="833" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K833" s="1"/>
+    </row>
+    <row r="834" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K834" s="1"/>
+    </row>
+    <row r="835" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K835" s="1"/>
+    </row>
+    <row r="836" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K836" s="1"/>
+    </row>
+    <row r="837" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K837" s="1"/>
+    </row>
+    <row r="838" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K838" s="1"/>
+    </row>
+    <row r="839" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K839" s="1"/>
+    </row>
+    <row r="840" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K840" s="1"/>
+    </row>
+    <row r="841" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K841" s="1"/>
+    </row>
+    <row r="842" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K842" s="1"/>
+    </row>
+    <row r="843" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K843" s="1"/>
+    </row>
+    <row r="844" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K844" s="1"/>
+    </row>
+    <row r="845" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K845" s="1"/>
+    </row>
+    <row r="846" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K846" s="1"/>
+    </row>
+    <row r="847" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K847" s="1"/>
+    </row>
+    <row r="848" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K848" s="1"/>
+    </row>
+    <row r="849" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K849" s="1"/>
+    </row>
+    <row r="850" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K850" s="1"/>
+    </row>
+    <row r="851" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K851" s="1"/>
+    </row>
+    <row r="852" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K852" s="1"/>
+    </row>
+    <row r="853" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K853" s="1"/>
+    </row>
+    <row r="854" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K854" s="1"/>
+    </row>
+    <row r="855" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K855" s="1"/>
+    </row>
+    <row r="856" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K856" s="1"/>
+    </row>
+    <row r="857" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K857" s="1"/>
+    </row>
+    <row r="858" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K858" s="1"/>
+    </row>
+    <row r="859" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K859" s="1"/>
+    </row>
+    <row r="860" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K860" s="1"/>
+    </row>
+    <row r="861" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K861" s="1"/>
+    </row>
+    <row r="862" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K862" s="1"/>
+    </row>
+    <row r="863" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K863" s="1"/>
+    </row>
+    <row r="864" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K864" s="1"/>
+    </row>
+    <row r="865" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K865" s="1"/>
+    </row>
+    <row r="866" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K866" s="1"/>
+    </row>
+    <row r="867" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K867" s="1"/>
+    </row>
+    <row r="868" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K868" s="1"/>
+    </row>
+    <row r="869" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K869" s="1"/>
+    </row>
+    <row r="870" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K870" s="1"/>
+    </row>
+    <row r="871" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K871" s="1"/>
+    </row>
+    <row r="872" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K872" s="1"/>
+    </row>
+    <row r="873" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K873" s="1"/>
+    </row>
+    <row r="874" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K874" s="1"/>
+    </row>
+    <row r="875" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K875" s="1"/>
+    </row>
+    <row r="876" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K876" s="1"/>
+    </row>
+    <row r="877" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K877" s="1"/>
+    </row>
+    <row r="878" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K878" s="1"/>
+    </row>
+    <row r="879" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K879" s="1"/>
+    </row>
+    <row r="880" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K880" s="1"/>
+    </row>
+    <row r="881" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K881" s="1"/>
+    </row>
+    <row r="882" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K882" s="1"/>
+    </row>
+    <row r="883" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K883" s="1"/>
+    </row>
+    <row r="884" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K884" s="1"/>
+    </row>
+    <row r="885" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K885" s="1"/>
+    </row>
+    <row r="886" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K886" s="1"/>
+    </row>
+    <row r="887" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K887" s="1"/>
+    </row>
+    <row r="888" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K888" s="1"/>
+    </row>
+    <row r="889" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K889" s="1"/>
+    </row>
+    <row r="890" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K890" s="1"/>
+    </row>
+    <row r="891" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K891" s="1"/>
+    </row>
+    <row r="892" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K892" s="1"/>
+    </row>
+    <row r="893" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K893" s="1"/>
+    </row>
+    <row r="894" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K894" s="1"/>
+    </row>
+    <row r="895" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K895" s="1"/>
+    </row>
+    <row r="896" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K896" s="1"/>
+    </row>
+    <row r="897" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K897" s="1"/>
+    </row>
+    <row r="898" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K898" s="1"/>
+    </row>
+    <row r="899" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K899" s="1"/>
+    </row>
+    <row r="900" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K900" s="1"/>
+    </row>
+    <row r="901" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K901" s="1"/>
+    </row>
+    <row r="902" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K902" s="1"/>
+    </row>
+    <row r="903" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K903" s="1"/>
+    </row>
+    <row r="904" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K904" s="1"/>
+    </row>
+    <row r="905" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K905" s="1"/>
+    </row>
+    <row r="906" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K906" s="1"/>
+    </row>
+    <row r="907" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K907" s="1"/>
+    </row>
+    <row r="908" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K908" s="1"/>
+    </row>
+    <row r="909" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K909" s="1"/>
+    </row>
+    <row r="910" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K910" s="1"/>
+    </row>
+    <row r="911" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K911" s="1"/>
+    </row>
+    <row r="912" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K912" s="1"/>
+    </row>
+    <row r="913" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K913" s="1"/>
+    </row>
+    <row r="914" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K914" s="1"/>
+    </row>
+    <row r="915" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K915" s="1"/>
+    </row>
+    <row r="916" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K916" s="1"/>
+    </row>
+    <row r="917" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K917" s="1"/>
+    </row>
+    <row r="918" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K918" s="1"/>
+    </row>
+    <row r="919" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K919" s="1"/>
+    </row>
+    <row r="920" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K920" s="1"/>
+    </row>
+    <row r="921" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K921" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18940,7 +20057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1670AE8E-1747-0942-886B-C7FF52593DB9}">
   <dimension ref="A1:J637"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A588" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/controlvariabledata.xlsx
+++ b/controlvariabledata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthew/Desktop/300paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5564A51-6151-654C-9250-08084C09074D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4320DE3F-9E0A-7746-B511-BDA44EC982D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" xr2:uid="{7EFC8D3C-ADB6-3947-9A8C-8159D8E1A1A2}"/>
+    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="1" xr2:uid="{7EFC8D3C-ADB6-3947-9A8C-8159D8E1A1A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Pork" sheetId="1" r:id="rId1"/>
@@ -37,33 +37,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
-    <t>Byproduct Value</t>
+    <t>Year</t>
   </si>
   <si>
-    <t>Gross farm value</t>
+    <t>Pork Byproduct Value</t>
   </si>
   <si>
-    <t>Net farm value</t>
+    <t>Pork Gross farm value</t>
   </si>
   <si>
-    <t>Wholesale value</t>
+    <t>Pork Net farm value</t>
   </si>
   <si>
-    <t>Retail value</t>
+    <t>Pork Wholesale value</t>
   </si>
   <si>
-    <t>Spreads Total</t>
+    <t>Pork Retail value</t>
   </si>
   <si>
-    <t>Spreads Farm-wholesale</t>
+    <t>Pork Spreads Total</t>
   </si>
   <si>
-    <t>Spreads Wholesale-retail</t>
+    <t>Pork Spreads Farm-wholesale</t>
   </si>
   <si>
-    <t>Year</t>
+    <t>Pork Spreads Wholesale-retail</t>
+  </si>
+  <si>
+    <t>Beef Byproduct Value</t>
+  </si>
+  <si>
+    <t>Beef Gross farm value</t>
+  </si>
+  <si>
+    <t>Beef Net farm value</t>
+  </si>
+  <si>
+    <t>Beef Wholesale value</t>
+  </si>
+  <si>
+    <t>Beef Retail value</t>
+  </si>
+  <si>
+    <t>Beef Spreads Total</t>
+  </si>
+  <si>
+    <t>Beef Spreads Farm-wholesale</t>
+  </si>
+  <si>
+    <t>Beef Spreads Wholesale-retail</t>
   </si>
 </sst>
 </file>
@@ -449,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52F350B-8099-B14D-A5A1-65B32D2FE538}">
   <dimension ref="A1:K921"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -459,33 +483,33 @@
     <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -20057,8 +20081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1670AE8E-1747-0942-886B-C7FF52593DB9}">
   <dimension ref="A1:J637"/>
   <sheetViews>
-    <sheetView topLeftCell="A588" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20067,33 +20091,33 @@
     <col min="2" max="10" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
